--- a/Char_Sheet.xlsx
+++ b/Char_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\susumu\TSRP\ForRocket_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ForRocket\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6257,6 +6257,78 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6317,9 +6389,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6329,71 +6398,68 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6407,33 +6473,12 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6446,48 +6491,6 @@
     <xf numFmtId="0" fontId="40" fillId="5" borderId="53" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6514,9 +6517,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6606,10 +6606,10 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1350</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1350</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200</c:v>
@@ -6749,19 +6749,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1350</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1400</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1400</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1350</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1350</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6825,22 +6825,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1150</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1350</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1385</c:v>
+                  <c:v>1485</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1415</c:v>
+                  <c:v>1515</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1295</c:v>
+                  <c:v>1395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1150</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6907,22 +6907,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1150</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1350</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1385</c:v>
+                  <c:v>1485</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1415</c:v>
+                  <c:v>1515</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1295</c:v>
+                  <c:v>1395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1150</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6999,7 +6999,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>880.52173913043487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7063,7 +7063,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>941.76111412248486</c:v>
+                  <c:v>1014.3409446026249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7090,11 +7090,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359420992"/>
-        <c:axId val="359421552"/>
+        <c:axId val="374503776"/>
+        <c:axId val="374504336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359420992"/>
+        <c:axId val="374503776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000"/>
@@ -7152,13 +7152,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359421552"/>
+        <c:crossAx val="374504336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359421552"/>
+        <c:axId val="374504336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -7217,7 +7217,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359420992"/>
+        <c:crossAx val="374503776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
@@ -7499,11 +7499,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359425472"/>
-        <c:axId val="359426032"/>
+        <c:axId val="374508256"/>
+        <c:axId val="374508816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359425472"/>
+        <c:axId val="374508256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7560,12 +7560,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359426032"/>
+        <c:crossAx val="374508816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359426032"/>
+        <c:axId val="374508816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7622,7 +7622,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359425472"/>
+        <c:crossAx val="374508256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11648,7 +11648,7 @@
       </c>
       <c r="B1">
         <f>諸元!F4</f>
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11668,7 +11668,7 @@
       </c>
       <c r="B3">
         <f>諸元!F6</f>
-        <v>30</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11678,7 +11678,7 @@
       </c>
       <c r="B4">
         <f>諸元!F7</f>
-        <v>1</v>
+        <v>0.85799999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11688,7 +11688,7 @@
       </c>
       <c r="B5">
         <f>諸元!F8</f>
-        <v>0</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11698,7 +11698,7 @@
       </c>
       <c r="B6">
         <f>諸元!F9</f>
-        <v>0</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11708,7 +11708,7 @@
       </c>
       <c r="B7">
         <f>諸元!F10</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11718,7 +11718,7 @@
       </c>
       <c r="B8">
         <f>諸元!F11</f>
-        <v>0</v>
+        <v>1.419</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11728,7 +11728,7 @@
       </c>
       <c r="B9">
         <f>諸元!F12</f>
-        <v>0</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B11">
         <f>諸元!F14</f>
-        <v>0</v>
+        <v>1.109</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11758,7 +11758,7 @@
       </c>
       <c r="B12">
         <f>諸元!F15</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11768,7 +11768,7 @@
       </c>
       <c r="B13">
         <f>諸元!F16</f>
-        <v>0</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -11778,7 +11778,7 @@
       </c>
       <c r="B14">
         <f>諸元!F17</f>
-        <v>0</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -11788,7 +11788,7 @@
       </c>
       <c r="B15">
         <f>諸元!F18</f>
-        <v>0</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -11808,7 +11808,7 @@
       </c>
       <c r="B17">
         <f>諸元!F20</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B21">
         <f>諸元!F24</f>
-        <v>3000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -11858,7 +11858,7 @@
       </c>
       <c r="B22">
         <f>諸元!F25</f>
-        <v>0</v>
+        <v>159.19999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -11868,7 +11868,7 @@
       </c>
       <c r="B23">
         <f>諸元!F26</f>
-        <v>0</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -11878,7 +11878,7 @@
       </c>
       <c r="B24">
         <f>諸元!F27</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -11888,7 +11888,7 @@
       </c>
       <c r="B25">
         <f>諸元!F28</f>
-        <v>0</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -11898,7 +11898,7 @@
       </c>
       <c r="B26">
         <f>諸元!F29</f>
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B27">
         <f>諸元!F30</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -11918,7 +11918,7 @@
       </c>
       <c r="B28">
         <f>諸元!F31</f>
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -11928,7 +11928,7 @@
       </c>
       <c r="B29">
         <f>諸元!F32</f>
-        <v>0</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -11938,7 +11938,7 @@
       </c>
       <c r="B30">
         <f>諸元!F33</f>
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -12018,7 +12018,7 @@
       </c>
       <c r="B38">
         <f>諸元!F41</f>
-        <v>6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -12038,7 +12038,7 @@
       </c>
       <c r="B40">
         <f>諸元!F43</f>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -12058,7 +12058,7 @@
       </c>
       <c r="B42">
         <f>諸元!F45</f>
-        <v>125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -12082,8 +12082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12102,27 +12102,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="213" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
     </row>
     <row r="2" spans="2:14" ht="12" customHeight="1" thickBot="1">
-      <c r="B2" s="192"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="187" t="s">
+      <c r="B2" s="216"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="200"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="224"/>
     </row>
     <row r="3" spans="2:14" ht="12" customHeight="1" thickBot="1">
       <c r="B3" s="43" t="s">
@@ -12151,10 +12151,10 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B4" s="201" t="s">
+      <c r="B4" s="194" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="196"/>
+      <c r="C4" s="220"/>
       <c r="D4" s="55" t="s">
         <v>340</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="64">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>6</v>
@@ -12179,12 +12179,12 @@
       </c>
       <c r="M4">
         <f>F4/F5</f>
-        <v>9.0909090909090899</v>
+        <v>9.7402597402597397</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B5" s="202"/>
-      <c r="C5" s="197"/>
+      <c r="B5" s="225"/>
+      <c r="C5" s="221"/>
       <c r="D5" s="52" t="s">
         <v>339</v>
       </c>
@@ -12203,8 +12203,8 @@
       <c r="I5" s="36"/>
     </row>
     <row r="6" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B6" s="202"/>
-      <c r="C6" s="197"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="221"/>
       <c r="D6" s="52" t="s">
         <v>12</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>150</v>
       </c>
       <c r="F6" s="20">
-        <v>30</v>
+        <v>7.34</v>
       </c>
       <c r="G6" s="53" t="s">
         <v>11</v>
@@ -12226,8 +12226,8 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B7" s="202"/>
-      <c r="C7" s="197"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="221"/>
       <c r="D7" s="52" t="s">
         <v>341</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="21">
-        <v>1</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="G7" s="53" t="s">
         <v>6</v>
@@ -12249,22 +12249,24 @@
       </c>
       <c r="M7">
         <f>F6*F7</f>
-        <v>30</v>
+        <v>6.29772</v>
       </c>
       <c r="N7" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B8" s="202"/>
-      <c r="C8" s="197"/>
+      <c r="B8" s="225"/>
+      <c r="C8" s="221"/>
       <c r="D8" s="52" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="24">
+        <v>0.40600000000000003</v>
+      </c>
       <c r="G8" s="53" t="s">
         <v>6</v>
       </c>
@@ -12277,22 +12279,24 @@
       </c>
       <c r="M8">
         <f>(F4-F8)*F26</f>
-        <v>0</v>
+        <v>0.41462599999999994</v>
       </c>
       <c r="N8" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B9" s="202"/>
-      <c r="C9" s="197"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="221"/>
       <c r="D9" s="52" t="s">
         <v>58</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="24">
+        <v>0.123</v>
+      </c>
       <c r="G9" s="53" t="s">
         <v>6</v>
       </c>
@@ -12305,22 +12309,24 @@
       </c>
       <c r="M9">
         <f>(F4-F9)*F27</f>
-        <v>0</v>
+        <v>0.23409000000000002</v>
       </c>
       <c r="N9" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B10" s="202"/>
-      <c r="C10" s="197"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="221"/>
       <c r="D10" s="52" t="s">
         <v>141</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="40">
+        <v>0.3</v>
+      </c>
       <c r="G10" s="53" t="s">
         <v>143</v>
       </c>
@@ -12333,22 +12339,24 @@
       </c>
       <c r="M10">
         <f>(F4-F9)*F28</f>
-        <v>0</v>
+        <v>0.147339</v>
       </c>
       <c r="N10" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B11" s="202"/>
-      <c r="C11" s="197"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="221"/>
       <c r="D11" s="52" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="67"/>
+      <c r="F11" s="67">
+        <v>1.419</v>
+      </c>
       <c r="G11" s="53" t="s">
         <v>4</v>
       </c>
@@ -12358,15 +12366,17 @@
       <c r="I11" s="36"/>
     </row>
     <row r="12" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B12" s="202"/>
-      <c r="C12" s="197"/>
+      <c r="B12" s="225"/>
+      <c r="C12" s="221"/>
       <c r="D12" s="52" t="s">
         <v>85</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="68"/>
+      <c r="F12" s="68">
+        <v>2.4E-2</v>
+      </c>
       <c r="G12" s="53" t="s">
         <v>4</v>
       </c>
@@ -12376,15 +12386,17 @@
       <c r="I12" s="36"/>
     </row>
     <row r="13" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B13" s="202"/>
-      <c r="C13" s="197"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="221"/>
       <c r="D13" s="52" t="s">
         <v>457</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="F13" s="67"/>
+      <c r="F13" s="67">
+        <v>0</v>
+      </c>
       <c r="G13" s="53" t="s">
         <v>462</v>
       </c>
@@ -12394,17 +12406,19 @@
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="204"/>
+      <c r="C14" s="227"/>
       <c r="D14" s="52" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="20">
+        <v>1.109</v>
+      </c>
       <c r="G14" s="53" t="s">
         <v>6</v>
       </c>
@@ -12420,22 +12434,24 @@
       </c>
       <c r="M14">
         <f>(M7+M9)/(F6+F27)</f>
-        <v>1</v>
+        <v>0.86974833555259656</v>
       </c>
       <c r="N14" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B15" s="190"/>
-      <c r="C15" s="204"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="227"/>
       <c r="D15" s="52" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="22">
+        <v>-1</v>
+      </c>
       <c r="G15" s="53" t="s">
         <v>14</v>
       </c>
@@ -12451,22 +12467,24 @@
       </c>
       <c r="M15">
         <f>(M7+M8+M9)/(F6+F26+F27)</f>
-        <v>1</v>
+        <v>0.88052173913043486</v>
       </c>
       <c r="N15" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B16" s="190"/>
-      <c r="C16" s="204"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="227"/>
       <c r="D16" s="52" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="22"/>
+      <c r="F16" s="22">
+        <v>-1.27</v>
+      </c>
       <c r="G16" s="53" t="s">
         <v>56</v>
       </c>
@@ -12482,22 +12500,24 @@
       </c>
       <c r="M16">
         <f>(M7+M10)/(F6+F28)</f>
-        <v>1</v>
+        <v>0.86545709681751037</v>
       </c>
       <c r="N16" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B17" s="190"/>
-      <c r="C17" s="204"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="227"/>
       <c r="D17" s="52" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="23">
+        <v>0.51</v>
+      </c>
       <c r="G17" s="53" t="s">
         <v>14</v>
       </c>
@@ -12507,15 +12527,17 @@
       <c r="I17" s="36"/>
     </row>
     <row r="18" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B18" s="190"/>
-      <c r="C18" s="204"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="227"/>
       <c r="D18" s="52" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="22">
+        <v>8.92</v>
+      </c>
       <c r="G18" s="53" t="s">
         <v>14</v>
       </c>
@@ -12531,22 +12553,24 @@
       </c>
       <c r="M18" s="127">
         <f>F6+F27</f>
-        <v>30</v>
+        <v>7.51</v>
       </c>
       <c r="N18" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B19" s="190"/>
-      <c r="C19" s="204"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="227"/>
       <c r="D19" s="52" t="s">
         <v>90</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="23">
+        <v>0</v>
+      </c>
       <c r="G19" s="54" t="s">
         <v>55</v>
       </c>
@@ -12562,24 +12586,26 @@
       </c>
       <c r="M19" s="133">
         <f>F6+F27+F26</f>
-        <v>30</v>
+        <v>7.8889999999999993</v>
       </c>
       <c r="N19" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B20" s="191" t="s">
+      <c r="B20" s="215" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="203"/>
+      <c r="C20" s="226"/>
       <c r="D20" s="52" t="s">
         <v>180</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="23">
+        <v>0.6</v>
+      </c>
       <c r="G20" s="53" t="s">
         <v>182</v>
       </c>
@@ -12595,22 +12621,24 @@
       </c>
       <c r="M20" s="127">
         <f>F6+F28</f>
-        <v>30</v>
+        <v>7.4470000000000001</v>
       </c>
       <c r="N20" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B21" s="191"/>
-      <c r="C21" s="203"/>
+      <c r="B21" s="215"/>
+      <c r="C21" s="226"/>
       <c r="D21" s="52" t="s">
         <v>181</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="23"/>
+      <c r="F21" s="23">
+        <v>0</v>
+      </c>
       <c r="G21" s="53" t="s">
         <v>182</v>
       </c>
@@ -12621,15 +12649,17 @@
       <c r="M21" s="127"/>
     </row>
     <row r="22" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B22" s="191"/>
-      <c r="C22" s="203"/>
+      <c r="B22" s="215"/>
+      <c r="C22" s="226"/>
       <c r="D22" s="52" t="s">
         <v>458</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="F22" s="23"/>
+      <c r="F22" s="23">
+        <v>0</v>
+      </c>
       <c r="G22" s="53" t="s">
         <v>187</v>
       </c>
@@ -12640,15 +12670,17 @@
       <c r="M22" s="127"/>
     </row>
     <row r="23" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B23" s="191"/>
-      <c r="C23" s="203"/>
+      <c r="B23" s="215"/>
+      <c r="C23" s="226"/>
       <c r="D23" s="52" t="s">
         <v>460</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="F23" s="23"/>
+      <c r="F23" s="23">
+        <v>0</v>
+      </c>
       <c r="G23" s="53" t="s">
         <v>182</v>
       </c>
@@ -12658,10 +12690,10 @@
       <c r="I23" s="36"/>
     </row>
     <row r="24" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B24" s="194" t="s">
+      <c r="B24" s="218" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="198"/>
+      <c r="C24" s="222"/>
       <c r="D24" s="52" t="s">
         <v>330</v>
       </c>
@@ -12669,7 +12701,7 @@
         <v>331</v>
       </c>
       <c r="F24" s="24">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="G24" s="53" t="s">
         <v>332</v>
@@ -12680,15 +12712,17 @@
       <c r="I24" s="36"/>
     </row>
     <row r="25" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B25" s="194"/>
-      <c r="C25" s="198"/>
+      <c r="B25" s="218"/>
+      <c r="C25" s="222"/>
       <c r="D25" s="52" t="s">
         <v>185</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="F25" s="24"/>
+      <c r="F25" s="24">
+        <v>159.19999999999999</v>
+      </c>
       <c r="G25" s="53" t="s">
         <v>187</v>
       </c>
@@ -12699,15 +12733,17 @@
       <c r="M25" s="127"/>
     </row>
     <row r="26" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B26" s="194"/>
-      <c r="C26" s="198"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="222"/>
       <c r="D26" s="52" t="s">
         <v>48</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="24"/>
+      <c r="F26" s="24">
+        <v>0.379</v>
+      </c>
       <c r="G26" s="53" t="s">
         <v>11</v>
       </c>
@@ -12717,15 +12753,17 @@
       <c r="I26" s="36"/>
     </row>
     <row r="27" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B27" s="194"/>
-      <c r="C27" s="198"/>
+      <c r="B27" s="218"/>
+      <c r="C27" s="222"/>
       <c r="D27" s="52" t="s">
         <v>148</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F27" s="24"/>
+      <c r="F27" s="24">
+        <v>0.17</v>
+      </c>
       <c r="G27" s="53" t="s">
         <v>11</v>
       </c>
@@ -12736,15 +12774,17 @@
       <c r="K27" s="126"/>
     </row>
     <row r="28" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B28" s="194"/>
-      <c r="C28" s="198"/>
+      <c r="B28" s="218"/>
+      <c r="C28" s="222"/>
       <c r="D28" s="52" t="s">
         <v>149</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="24"/>
+      <c r="F28" s="24">
+        <v>0.107</v>
+      </c>
       <c r="G28" s="53" t="s">
         <v>147</v>
       </c>
@@ -12754,15 +12794,17 @@
       <c r="I28" s="36"/>
     </row>
     <row r="29" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B29" s="194"/>
-      <c r="C29" s="198"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="222"/>
       <c r="D29" s="52" t="s">
         <v>455</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="F29" s="24"/>
+      <c r="F29" s="24">
+        <v>0.12</v>
+      </c>
       <c r="G29" s="53" t="s">
         <v>49</v>
       </c>
@@ -12772,15 +12814,17 @@
       <c r="I29" s="36"/>
     </row>
     <row r="30" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B30" s="194"/>
-      <c r="C30" s="198"/>
+      <c r="B30" s="218"/>
+      <c r="C30" s="222"/>
       <c r="D30" s="52" t="s">
         <v>356</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="F30" s="24"/>
+      <c r="F30" s="24">
+        <v>0.05</v>
+      </c>
       <c r="G30" s="53" t="s">
         <v>359</v>
       </c>
@@ -12790,15 +12834,17 @@
       <c r="I30" s="36"/>
     </row>
     <row r="31" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B31" s="194"/>
-      <c r="C31" s="198"/>
+      <c r="B31" s="218"/>
+      <c r="C31" s="222"/>
       <c r="D31" s="52" t="s">
         <v>357</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="F31" s="24"/>
+      <c r="F31" s="24">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="G31" s="53" t="s">
         <v>359</v>
       </c>
@@ -12808,15 +12854,17 @@
       <c r="I31" s="36"/>
     </row>
     <row r="32" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B32" s="194"/>
-      <c r="C32" s="198"/>
+      <c r="B32" s="218"/>
+      <c r="C32" s="222"/>
       <c r="D32" s="52" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="24"/>
+      <c r="F32" s="24">
+        <v>0.16900000000000001</v>
+      </c>
       <c r="G32" s="53" t="s">
         <v>54</v>
       </c>
@@ -12826,15 +12874,17 @@
       <c r="I32" s="36"/>
     </row>
     <row r="33" spans="2:14" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B33" s="195"/>
-      <c r="C33" s="199"/>
+      <c r="B33" s="219"/>
+      <c r="C33" s="223"/>
       <c r="D33" s="58" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="42">
+        <v>2.8000000000000001E-2</v>
+      </c>
       <c r="G33" s="59" t="s">
         <v>54</v>
       </c>
@@ -12857,20 +12907,20 @@
       <c r="N34"/>
     </row>
     <row r="35" spans="2:14" ht="14.25" customHeight="1" thickBot="1">
-      <c r="D35" s="187" t="s">
+      <c r="D35" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="188"/>
-      <c r="F35" s="188"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
+      <c r="E35" s="212"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="212"/>
+      <c r="H35" s="212"/>
       <c r="I35" s="69"/>
     </row>
     <row r="36" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B36" s="184" t="s">
+      <c r="B36" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="181"/>
+      <c r="C36" s="205"/>
       <c r="D36" s="9" t="s">
         <v>21</v>
       </c>
@@ -12889,8 +12939,8 @@
       <c r="I36" s="35"/>
     </row>
     <row r="37" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B37" s="185"/>
-      <c r="C37" s="182"/>
+      <c r="B37" s="209"/>
+      <c r="C37" s="206"/>
       <c r="D37" s="2" t="s">
         <v>24</v>
       </c>
@@ -12910,8 +12960,8 @@
       <c r="M37" s="126"/>
     </row>
     <row r="38" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B38" s="185"/>
-      <c r="C38" s="182"/>
+      <c r="B38" s="209"/>
+      <c r="C38" s="206"/>
       <c r="D38" s="1" t="s">
         <v>27</v>
       </c>
@@ -12931,8 +12981,8 @@
       <c r="M38" s="126"/>
     </row>
     <row r="39" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B39" s="185"/>
-      <c r="C39" s="182"/>
+      <c r="B39" s="209"/>
+      <c r="C39" s="206"/>
       <c r="D39" s="1" t="s">
         <v>30</v>
       </c>
@@ -12952,8 +13002,8 @@
       <c r="M39" s="126"/>
     </row>
     <row r="40" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B40" s="185"/>
-      <c r="C40" s="182"/>
+      <c r="B40" s="209"/>
+      <c r="C40" s="206"/>
       <c r="D40" s="1" t="s">
         <v>193</v>
       </c>
@@ -12971,8 +13021,8 @@
       <c r="M40" s="126"/>
     </row>
     <row r="41" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B41" s="185"/>
-      <c r="C41" s="182"/>
+      <c r="B41" s="209"/>
+      <c r="C41" s="206"/>
       <c r="D41" s="4" t="s">
         <v>34</v>
       </c>
@@ -12980,7 +13030,7 @@
         <v>35</v>
       </c>
       <c r="F41" s="128">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="45" t="s">
@@ -12989,8 +13039,8 @@
       <c r="I41" s="36"/>
     </row>
     <row r="42" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B42" s="185"/>
-      <c r="C42" s="182"/>
+      <c r="B42" s="209"/>
+      <c r="C42" s="206"/>
       <c r="D42" s="3" t="s">
         <v>36</v>
       </c>
@@ -13003,14 +13053,14 @@
       <c r="G42" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="267" t="s">
+      <c r="H42" s="181" t="s">
         <v>508</v>
       </c>
       <c r="I42" s="36"/>
     </row>
     <row r="43" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B43" s="185"/>
-      <c r="C43" s="182"/>
+      <c r="B43" s="209"/>
+      <c r="C43" s="206"/>
       <c r="D43" s="15" t="s">
         <v>39</v>
       </c>
@@ -13018,7 +13068,7 @@
         <v>40</v>
       </c>
       <c r="F43" s="130">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G43" s="33" t="s">
         <v>6</v>
@@ -13029,8 +13079,8 @@
       <c r="I43" s="36"/>
     </row>
     <row r="44" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B44" s="185"/>
-      <c r="C44" s="182"/>
+      <c r="B44" s="209"/>
+      <c r="C44" s="206"/>
       <c r="D44" s="1" t="s">
         <v>41</v>
       </c>
@@ -13049,8 +13099,8 @@
       <c r="I44" s="36"/>
     </row>
     <row r="45" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B45" s="185"/>
-      <c r="C45" s="182"/>
+      <c r="B45" s="209"/>
+      <c r="C45" s="206"/>
       <c r="D45" s="11" t="s">
         <v>43</v>
       </c>
@@ -13058,7 +13108,7 @@
         <v>328</v>
       </c>
       <c r="F45" s="128">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="G45" s="33" t="s">
         <v>33</v>
@@ -13069,8 +13119,8 @@
       <c r="I45" s="36"/>
     </row>
     <row r="46" spans="2:14" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B46" s="186"/>
-      <c r="C46" s="183"/>
+      <c r="B46" s="210"/>
+      <c r="C46" s="207"/>
       <c r="D46" s="17" t="s">
         <v>44</v>
       </c>
@@ -13090,20 +13140,20 @@
     </row>
     <row r="47" spans="2:14" ht="7.15" customHeight="1" thickBot="1"/>
     <row r="48" spans="2:14" ht="14.25" thickBot="1">
-      <c r="D48" s="220" t="s">
+      <c r="D48" s="198" t="s">
         <v>177</v>
       </c>
-      <c r="E48" s="221"/>
-      <c r="F48" s="221"/>
-      <c r="G48" s="221"/>
-      <c r="H48" s="221"/>
-      <c r="I48" s="222"/>
+      <c r="E48" s="199"/>
+      <c r="F48" s="199"/>
+      <c r="G48" s="199"/>
+      <c r="H48" s="199"/>
+      <c r="I48" s="200"/>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="201" t="s">
+      <c r="B49" s="194" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="218"/>
+      <c r="C49" s="196"/>
       <c r="D49" s="57" t="s">
         <v>171</v>
       </c>
@@ -13122,8 +13172,8 @@
       <c r="I49" s="35"/>
     </row>
     <row r="50" spans="2:17">
-      <c r="B50" s="217"/>
-      <c r="C50" s="219"/>
+      <c r="B50" s="195"/>
+      <c r="C50" s="197"/>
       <c r="D50" s="47" t="s">
         <v>172</v>
       </c>
@@ -13140,8 +13190,8 @@
       <c r="I50" s="36"/>
     </row>
     <row r="51" spans="2:17">
-      <c r="B51" s="217"/>
-      <c r="C51" s="219"/>
+      <c r="B51" s="195"/>
+      <c r="C51" s="197"/>
       <c r="D51" s="47" t="s">
         <v>173</v>
       </c>
@@ -13158,8 +13208,8 @@
       <c r="I51" s="36"/>
     </row>
     <row r="52" spans="2:17" ht="13.5" customHeight="1">
-      <c r="B52" s="217"/>
-      <c r="C52" s="219"/>
+      <c r="B52" s="195"/>
+      <c r="C52" s="197"/>
       <c r="D52" s="47" t="s">
         <v>174</v>
       </c>
@@ -13184,8 +13234,8 @@
       </c>
     </row>
     <row r="53" spans="2:17">
-      <c r="B53" s="217"/>
-      <c r="C53" s="219"/>
+      <c r="B53" s="195"/>
+      <c r="C53" s="197"/>
       <c r="D53" s="47" t="s">
         <v>175</v>
       </c>
@@ -13211,10 +13261,10 @@
       </c>
     </row>
     <row r="54" spans="2:17">
-      <c r="B54" s="223" t="s">
+      <c r="B54" s="201" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="225"/>
+      <c r="C54" s="203"/>
       <c r="D54" s="52" t="s">
         <v>192</v>
       </c>
@@ -13250,8 +13300,8 @@
       </c>
     </row>
     <row r="55" spans="2:17" ht="14.25" thickBot="1">
-      <c r="B55" s="224"/>
-      <c r="C55" s="226"/>
+      <c r="B55" s="202"/>
+      <c r="C55" s="204"/>
       <c r="D55" s="71" t="s">
         <v>168</v>
       </c>
@@ -13271,66 +13321,59 @@
       <c r="E56" s="30"/>
     </row>
     <row r="57" spans="2:17" ht="14.25" thickBot="1">
-      <c r="B57" s="214" t="s">
+      <c r="B57" s="191" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="215"/>
-      <c r="D57" s="215"/>
-      <c r="E57" s="215"/>
-      <c r="F57" s="215"/>
-      <c r="G57" s="215"/>
-      <c r="H57" s="215"/>
-      <c r="I57" s="216"/>
+      <c r="C57" s="192"/>
+      <c r="D57" s="192"/>
+      <c r="E57" s="192"/>
+      <c r="F57" s="192"/>
+      <c r="G57" s="192"/>
+      <c r="H57" s="192"/>
+      <c r="I57" s="193"/>
     </row>
     <row r="58" spans="2:17">
-      <c r="B58" s="205"/>
-      <c r="C58" s="206"/>
-      <c r="D58" s="206"/>
-      <c r="E58" s="206"/>
-      <c r="F58" s="206"/>
-      <c r="G58" s="206"/>
-      <c r="H58" s="206"/>
-      <c r="I58" s="207"/>
+      <c r="B58" s="182"/>
+      <c r="C58" s="183"/>
+      <c r="D58" s="183"/>
+      <c r="E58" s="183"/>
+      <c r="F58" s="183"/>
+      <c r="G58" s="183"/>
+      <c r="H58" s="183"/>
+      <c r="I58" s="184"/>
     </row>
     <row r="59" spans="2:17">
-      <c r="B59" s="208"/>
-      <c r="C59" s="209"/>
-      <c r="D59" s="209"/>
-      <c r="E59" s="209"/>
-      <c r="F59" s="209"/>
-      <c r="G59" s="209"/>
-      <c r="H59" s="209"/>
-      <c r="I59" s="210"/>
+      <c r="B59" s="185"/>
+      <c r="C59" s="186"/>
+      <c r="D59" s="186"/>
+      <c r="E59" s="186"/>
+      <c r="F59" s="186"/>
+      <c r="G59" s="186"/>
+      <c r="H59" s="186"/>
+      <c r="I59" s="187"/>
     </row>
     <row r="60" spans="2:17">
-      <c r="B60" s="208"/>
-      <c r="C60" s="209"/>
-      <c r="D60" s="209"/>
-      <c r="E60" s="209"/>
-      <c r="F60" s="209"/>
-      <c r="G60" s="209"/>
-      <c r="H60" s="209"/>
-      <c r="I60" s="210"/>
+      <c r="B60" s="185"/>
+      <c r="C60" s="186"/>
+      <c r="D60" s="186"/>
+      <c r="E60" s="186"/>
+      <c r="F60" s="186"/>
+      <c r="G60" s="186"/>
+      <c r="H60" s="186"/>
+      <c r="I60" s="187"/>
     </row>
     <row r="61" spans="2:17" ht="14.25" thickBot="1">
-      <c r="B61" s="211"/>
-      <c r="C61" s="212"/>
-      <c r="D61" s="212"/>
-      <c r="E61" s="212"/>
-      <c r="F61" s="212"/>
-      <c r="G61" s="212"/>
-      <c r="H61" s="212"/>
-      <c r="I61" s="213"/>
+      <c r="B61" s="188"/>
+      <c r="C61" s="189"/>
+      <c r="D61" s="189"/>
+      <c r="E61" s="189"/>
+      <c r="F61" s="189"/>
+      <c r="G61" s="189"/>
+      <c r="H61" s="189"/>
+      <c r="I61" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B58:I61"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
     <mergeCell ref="C36:C46"/>
     <mergeCell ref="B36:B46"/>
     <mergeCell ref="D35:H35"/>
@@ -13345,6 +13388,13 @@
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B58:I61"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.18" right="0.18" top="0.75" bottom="0.32" header="0.3" footer="0.17"/>
@@ -13658,25 +13708,25 @@
   <sheetData>
     <row r="1" spans="1:44" ht="19.5" customHeight="1" thickBot="1">
       <c r="A1" s="169"/>
-      <c r="B1" s="227" t="s">
+      <c r="B1" s="249" t="s">
         <v>505</v>
       </c>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="229"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="251"/>
       <c r="K1" s="170"/>
-      <c r="L1" s="230" t="s">
+      <c r="L1" s="252" t="s">
         <v>401</v>
       </c>
-      <c r="M1" s="230"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="230"/>
-      <c r="P1" s="230"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="252"/>
+      <c r="P1" s="252"/>
       <c r="Q1" s="170"/>
       <c r="R1" s="170"/>
       <c r="S1" s="170"/>
@@ -13726,16 +13776,16 @@
       <c r="Y2" s="141"/>
       <c r="Z2" s="141"/>
       <c r="AA2" s="141"/>
-      <c r="AB2" s="249" t="s">
+      <c r="AB2" s="240" t="s">
         <v>447</v>
       </c>
-      <c r="AC2" s="250"/>
-      <c r="AD2" s="250"/>
-      <c r="AE2" s="250"/>
-      <c r="AF2" s="250"/>
-      <c r="AG2" s="250"/>
-      <c r="AH2" s="250"/>
-      <c r="AI2" s="251"/>
+      <c r="AC2" s="241"/>
+      <c r="AD2" s="241"/>
+      <c r="AE2" s="241"/>
+      <c r="AF2" s="241"/>
+      <c r="AG2" s="241"/>
+      <c r="AH2" s="241"/>
+      <c r="AI2" s="242"/>
       <c r="AJ2" s="149"/>
     </row>
     <row r="3" spans="1:44" ht="19.5" customHeight="1" thickBot="1">
@@ -13789,29 +13839,29 @@
       </c>
       <c r="U3" s="141"/>
       <c r="V3" s="141"/>
-      <c r="W3" s="241" t="s">
+      <c r="W3" s="256" t="s">
         <v>242</v>
       </c>
-      <c r="X3" s="242"/>
-      <c r="Y3" s="242"/>
-      <c r="Z3" s="243"/>
+      <c r="X3" s="257"/>
+      <c r="Y3" s="257"/>
+      <c r="Z3" s="258"/>
       <c r="AA3" s="141"/>
-      <c r="AB3" s="252"/>
-      <c r="AC3" s="253"/>
-      <c r="AD3" s="253"/>
-      <c r="AE3" s="253"/>
-      <c r="AF3" s="253"/>
-      <c r="AG3" s="253"/>
-      <c r="AH3" s="253"/>
-      <c r="AI3" s="254"/>
+      <c r="AB3" s="243"/>
+      <c r="AC3" s="244"/>
+      <c r="AD3" s="244"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="244"/>
+      <c r="AG3" s="244"/>
+      <c r="AH3" s="244"/>
+      <c r="AI3" s="245"/>
       <c r="AJ3" s="149"/>
-      <c r="AN3" s="237" t="s">
+      <c r="AN3" s="233" t="s">
         <v>488</v>
       </c>
-      <c r="AO3" s="238"/>
-      <c r="AP3" s="238"/>
-      <c r="AQ3" s="238"/>
-      <c r="AR3" s="239"/>
+      <c r="AO3" s="234"/>
+      <c r="AP3" s="234"/>
+      <c r="AQ3" s="234"/>
+      <c r="AR3" s="235"/>
     </row>
     <row r="4" spans="1:44" ht="19.5" customHeight="1">
       <c r="A4" s="148"/>
@@ -13867,14 +13917,14 @@
         <v>245</v>
       </c>
       <c r="AA4" s="141"/>
-      <c r="AB4" s="252"/>
-      <c r="AC4" s="253"/>
-      <c r="AD4" s="253"/>
-      <c r="AE4" s="253"/>
-      <c r="AF4" s="253"/>
-      <c r="AG4" s="253"/>
-      <c r="AH4" s="253"/>
-      <c r="AI4" s="254"/>
+      <c r="AB4" s="243"/>
+      <c r="AC4" s="244"/>
+      <c r="AD4" s="244"/>
+      <c r="AE4" s="244"/>
+      <c r="AF4" s="244"/>
+      <c r="AG4" s="244"/>
+      <c r="AH4" s="244"/>
+      <c r="AI4" s="245"/>
       <c r="AJ4" s="149"/>
       <c r="AN4" s="148"/>
       <c r="AO4" s="141"/>
@@ -13899,7 +13949,7 @@
       </c>
       <c r="I5" s="139">
         <f>諸元!F4*1000</f>
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J5" s="134" t="s">
         <v>154</v>
@@ -13924,7 +13974,7 @@
       </c>
       <c r="S5" s="134">
         <f>I5-S4</f>
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="T5" s="134" t="s">
         <v>154</v>
@@ -13939,30 +13989,30 @@
       </c>
       <c r="Y5" s="163">
         <f>S19/1000</f>
-        <v>0.94176111412248487</v>
+        <v>1.0143409446026248</v>
       </c>
       <c r="Z5" s="164" t="s">
         <v>49</v>
       </c>
       <c r="AA5" s="141"/>
-      <c r="AB5" s="252"/>
-      <c r="AC5" s="253"/>
-      <c r="AD5" s="253"/>
-      <c r="AE5" s="253"/>
-      <c r="AF5" s="253"/>
-      <c r="AG5" s="253"/>
-      <c r="AH5" s="253"/>
-      <c r="AI5" s="254"/>
+      <c r="AB5" s="243"/>
+      <c r="AC5" s="244"/>
+      <c r="AD5" s="244"/>
+      <c r="AE5" s="244"/>
+      <c r="AF5" s="244"/>
+      <c r="AG5" s="244"/>
+      <c r="AH5" s="244"/>
+      <c r="AI5" s="245"/>
       <c r="AJ5" s="149"/>
-      <c r="AN5" s="245" t="s">
+      <c r="AN5" s="228" t="s">
         <v>489</v>
       </c>
-      <c r="AO5" s="244"/>
+      <c r="AO5" s="229"/>
       <c r="AP5" s="141"/>
-      <c r="AQ5" s="244" t="s">
+      <c r="AQ5" s="229" t="s">
         <v>238</v>
       </c>
-      <c r="AR5" s="246"/>
+      <c r="AR5" s="236"/>
     </row>
     <row r="6" spans="1:44" ht="19.5" customHeight="1">
       <c r="A6" s="148"/>
@@ -13979,7 +14029,7 @@
       </c>
       <c r="I6" s="134">
         <f>I5/I3</f>
-        <v>9.0909090909090917</v>
+        <v>9.7402597402597397</v>
       </c>
       <c r="J6" s="134"/>
       <c r="K6" s="141"/>
@@ -13991,7 +14041,7 @@
       </c>
       <c r="N6" s="139">
         <f>I5-S4-N9</f>
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="O6" s="134" t="s">
         <v>154</v>
@@ -14011,20 +14061,20 @@
       </c>
       <c r="Y6" s="163">
         <f>-4*2*($N$12+$I$4)^4/(PI()*$I$5^2*($I$3^2*PI()/4))</f>
-        <v>-0.1050552170921845</v>
+        <v>-9.1514766889191843E-2</v>
       </c>
       <c r="Z6" s="164" t="s">
         <v>56</v>
       </c>
       <c r="AA6" s="141"/>
-      <c r="AB6" s="252"/>
-      <c r="AC6" s="253"/>
-      <c r="AD6" s="253"/>
-      <c r="AE6" s="253"/>
-      <c r="AF6" s="253"/>
-      <c r="AG6" s="253"/>
-      <c r="AH6" s="253"/>
-      <c r="AI6" s="254"/>
+      <c r="AB6" s="243"/>
+      <c r="AC6" s="244"/>
+      <c r="AD6" s="244"/>
+      <c r="AE6" s="244"/>
+      <c r="AF6" s="244"/>
+      <c r="AG6" s="244"/>
+      <c r="AH6" s="244"/>
+      <c r="AI6" s="245"/>
       <c r="AJ6" s="149"/>
       <c r="AN6" s="148" t="s">
         <v>490</v>
@@ -14089,20 +14139,20 @@
       </c>
       <c r="Y7" s="163">
         <f>AVERAGE(Y23,Y29)</f>
-        <v>-1.8543771569994987</v>
+        <v>-2.0236313718682957</v>
       </c>
       <c r="Z7" s="164" t="s">
         <v>56</v>
       </c>
       <c r="AA7" s="141"/>
-      <c r="AB7" s="252"/>
-      <c r="AC7" s="253"/>
-      <c r="AD7" s="253"/>
-      <c r="AE7" s="253"/>
-      <c r="AF7" s="253"/>
-      <c r="AG7" s="253"/>
-      <c r="AH7" s="253"/>
-      <c r="AI7" s="254"/>
+      <c r="AB7" s="243"/>
+      <c r="AC7" s="244"/>
+      <c r="AD7" s="244"/>
+      <c r="AE7" s="244"/>
+      <c r="AF7" s="244"/>
+      <c r="AG7" s="244"/>
+      <c r="AH7" s="244"/>
+      <c r="AI7" s="245"/>
       <c r="AJ7" s="149"/>
       <c r="AN7" s="148">
         <v>0</v>
@@ -14113,7 +14163,7 @@
       <c r="AP7" s="141"/>
       <c r="AQ7" s="141">
         <f>I9</f>
-        <v>1000</v>
+        <v>880.52173913043487</v>
       </c>
       <c r="AR7" s="149">
         <v>0</v>
@@ -14134,7 +14184,7 @@
       </c>
       <c r="I8" s="139">
         <f>諸元!M14*1000</f>
-        <v>1000</v>
+        <v>869.74833555259659</v>
       </c>
       <c r="J8" s="134" t="s">
         <v>154</v>
@@ -14173,14 +14223,14 @@
         <v>478</v>
       </c>
       <c r="AA8" s="141"/>
-      <c r="AB8" s="252"/>
-      <c r="AC8" s="253"/>
-      <c r="AD8" s="253"/>
-      <c r="AE8" s="253"/>
-      <c r="AF8" s="253"/>
-      <c r="AG8" s="253"/>
-      <c r="AH8" s="253"/>
-      <c r="AI8" s="254"/>
+      <c r="AB8" s="243"/>
+      <c r="AC8" s="244"/>
+      <c r="AD8" s="244"/>
+      <c r="AE8" s="244"/>
+      <c r="AF8" s="244"/>
+      <c r="AG8" s="244"/>
+      <c r="AH8" s="244"/>
+      <c r="AI8" s="245"/>
       <c r="AJ8" s="149"/>
       <c r="AN8" s="148">
         <f>D7</f>
@@ -14216,7 +14266,7 @@
       </c>
       <c r="I9" s="139">
         <f>諸元!M15*1000</f>
-        <v>1000</v>
+        <v>880.52173913043487</v>
       </c>
       <c r="J9" s="134" t="s">
         <v>154</v>
@@ -14243,7 +14293,7 @@
       </c>
       <c r="S9" s="134">
         <f>S5+(S4/3)*(1+((1-(I3/S3))/(1-(I3/S3)^2)))</f>
-        <v>1374.2957746478874</v>
+        <v>1474.2957746478874</v>
       </c>
       <c r="T9" s="134" t="s">
         <v>154</v>
@@ -14264,14 +14314,14 @@
         <v>479</v>
       </c>
       <c r="AA9" s="141"/>
-      <c r="AB9" s="252"/>
-      <c r="AC9" s="253"/>
-      <c r="AD9" s="253"/>
-      <c r="AE9" s="253"/>
-      <c r="AF9" s="253"/>
-      <c r="AG9" s="253"/>
-      <c r="AH9" s="253"/>
-      <c r="AI9" s="254"/>
+      <c r="AB9" s="243"/>
+      <c r="AC9" s="244"/>
+      <c r="AD9" s="244"/>
+      <c r="AE9" s="244"/>
+      <c r="AF9" s="244"/>
+      <c r="AG9" s="244"/>
+      <c r="AH9" s="244"/>
+      <c r="AI9" s="245"/>
       <c r="AJ9" s="149"/>
       <c r="AN9" s="148">
         <f>AN8</f>
@@ -14282,10 +14332,10 @@
         <v>-77</v>
       </c>
       <c r="AP9" s="141"/>
-      <c r="AQ9" s="244" t="s">
+      <c r="AQ9" s="229" t="s">
         <v>363</v>
       </c>
-      <c r="AR9" s="246"/>
+      <c r="AR9" s="236"/>
     </row>
     <row r="10" spans="1:44" ht="19.5" customHeight="1">
       <c r="A10" s="148"/>
@@ -14307,7 +14357,7 @@
       </c>
       <c r="I10" s="139">
         <f>諸元!M16*1000</f>
-        <v>1000</v>
+        <v>865.45709681751032</v>
       </c>
       <c r="J10" s="134" t="s">
         <v>154</v>
@@ -14337,14 +14387,14 @@
       <c r="Y10" s="163"/>
       <c r="Z10" s="164"/>
       <c r="AA10" s="141"/>
-      <c r="AB10" s="252"/>
-      <c r="AC10" s="253"/>
-      <c r="AD10" s="253"/>
-      <c r="AE10" s="253"/>
-      <c r="AF10" s="253"/>
-      <c r="AG10" s="253"/>
-      <c r="AH10" s="253"/>
-      <c r="AI10" s="254"/>
+      <c r="AB10" s="243"/>
+      <c r="AC10" s="244"/>
+      <c r="AD10" s="244"/>
+      <c r="AE10" s="244"/>
+      <c r="AF10" s="244"/>
+      <c r="AG10" s="244"/>
+      <c r="AH10" s="244"/>
+      <c r="AI10" s="245"/>
       <c r="AJ10" s="149"/>
       <c r="AN10" s="148">
         <v>0</v>
@@ -14396,21 +14446,21 @@
       <c r="Y11" s="167"/>
       <c r="Z11" s="168"/>
       <c r="AA11" s="141"/>
-      <c r="AB11" s="255"/>
-      <c r="AC11" s="256"/>
-      <c r="AD11" s="256"/>
-      <c r="AE11" s="256"/>
-      <c r="AF11" s="256"/>
-      <c r="AG11" s="256"/>
-      <c r="AH11" s="256"/>
-      <c r="AI11" s="257"/>
+      <c r="AB11" s="246"/>
+      <c r="AC11" s="247"/>
+      <c r="AD11" s="247"/>
+      <c r="AE11" s="247"/>
+      <c r="AF11" s="247"/>
+      <c r="AG11" s="247"/>
+      <c r="AH11" s="247"/>
+      <c r="AI11" s="248"/>
       <c r="AJ11" s="149"/>
       <c r="AN11" s="148"/>
       <c r="AO11" s="141"/>
       <c r="AP11" s="141"/>
       <c r="AQ11" s="141">
         <f>S19</f>
-        <v>941.76111412248486</v>
+        <v>1014.3409446026249</v>
       </c>
       <c r="AR11" s="149">
         <v>0</v>
@@ -14550,15 +14600,15 @@
       <c r="AH13" s="141"/>
       <c r="AI13" s="141"/>
       <c r="AJ13" s="149"/>
-      <c r="AN13" s="245" t="s">
+      <c r="AN13" s="228" t="s">
         <v>494</v>
       </c>
-      <c r="AO13" s="244"/>
+      <c r="AO13" s="229"/>
       <c r="AP13" s="141"/>
-      <c r="AQ13" s="244" t="s">
+      <c r="AQ13" s="229" t="s">
         <v>362</v>
       </c>
-      <c r="AR13" s="246"/>
+      <c r="AR13" s="236"/>
     </row>
     <row r="14" spans="1:44" ht="19.5" customHeight="1">
       <c r="A14" s="148"/>
@@ -14612,13 +14662,13 @@
       <c r="Z14" s="141"/>
       <c r="AA14" s="141"/>
       <c r="AB14" s="141"/>
-      <c r="AC14" s="234"/>
-      <c r="AD14" s="235"/>
-      <c r="AE14" s="236"/>
+      <c r="AC14" s="230"/>
+      <c r="AD14" s="231"/>
+      <c r="AE14" s="232"/>
       <c r="AF14" s="141"/>
-      <c r="AG14" s="234"/>
-      <c r="AH14" s="235"/>
-      <c r="AI14" s="236"/>
+      <c r="AG14" s="230"/>
+      <c r="AH14" s="231"/>
+      <c r="AI14" s="232"/>
       <c r="AJ14" s="149"/>
       <c r="AN14" s="148" t="s">
         <v>492</v>
@@ -14684,7 +14734,7 @@
       <c r="AD15" s="137"/>
       <c r="AE15" s="138"/>
       <c r="AF15" s="141"/>
-      <c r="AG15" s="231"/>
+      <c r="AG15" s="239"/>
       <c r="AH15" s="137"/>
       <c r="AI15" s="138"/>
       <c r="AJ15" s="149"/>
@@ -14738,7 +14788,7 @@
       </c>
       <c r="S16" s="134">
         <f>N6+(N11*(N20+2*N10)/(3*(N20+N10)))+(N20+N10-(N20*N10/(N20+N10)))/6</f>
-        <v>1259.6298750501533</v>
+        <v>1359.6298750501533</v>
       </c>
       <c r="T16" s="134" t="s">
         <v>154</v>
@@ -14753,7 +14803,7 @@
       </c>
       <c r="Y16" s="158">
         <f>(S19-I8)/I3</f>
-        <v>-0.37817458362022821</v>
+        <v>0.93891304577940438</v>
       </c>
       <c r="Z16" s="141"/>
       <c r="AA16" s="141"/>
@@ -14762,13 +14812,13 @@
       <c r="AD16" s="141"/>
       <c r="AE16" s="142"/>
       <c r="AF16" s="141"/>
-      <c r="AG16" s="247"/>
+      <c r="AG16" s="237"/>
       <c r="AH16" s="141"/>
       <c r="AI16" s="142"/>
       <c r="AJ16" s="149"/>
       <c r="AN16" s="148">
         <f>I5-S4</f>
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="AO16" s="141">
         <f>AO15</f>
@@ -14820,7 +14870,7 @@
       </c>
       <c r="Y17" s="158">
         <f>100*(S19-I8)/I5</f>
-        <v>-4.1599204198225106</v>
+        <v>9.6395072700018858</v>
       </c>
       <c r="Z17" s="141"/>
       <c r="AA17" s="141"/>
@@ -14829,13 +14879,13 @@
       <c r="AD17" s="141"/>
       <c r="AE17" s="142"/>
       <c r="AF17" s="141"/>
-      <c r="AG17" s="247"/>
+      <c r="AG17" s="237"/>
       <c r="AH17" s="141"/>
       <c r="AI17" s="142"/>
       <c r="AJ17" s="149"/>
       <c r="AN17" s="148">
         <f>AN16</f>
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="AO17" s="141">
         <f>-AO16</f>
@@ -14893,7 +14943,7 @@
       <c r="AD18" s="141"/>
       <c r="AE18" s="142"/>
       <c r="AF18" s="141"/>
-      <c r="AG18" s="247"/>
+      <c r="AG18" s="237"/>
       <c r="AH18" s="141"/>
       <c r="AI18" s="142"/>
       <c r="AJ18" s="149"/>
@@ -14927,12 +14977,12 @@
       <c r="I19" s="141"/>
       <c r="J19" s="141"/>
       <c r="K19" s="141"/>
-      <c r="L19" s="240" t="s">
+      <c r="L19" s="255" t="s">
         <v>377</v>
       </c>
-      <c r="M19" s="240"/>
-      <c r="N19" s="240"/>
-      <c r="O19" s="240"/>
+      <c r="M19" s="255"/>
+      <c r="N19" s="255"/>
+      <c r="O19" s="255"/>
       <c r="P19" s="141"/>
       <c r="Q19" s="178" t="s">
         <v>280</v>
@@ -14942,7 +14992,7 @@
       </c>
       <c r="S19" s="179">
         <f>(D12*D14+S7*S9+S14*S16)/Y9</f>
-        <v>941.76111412248486</v>
+        <v>1014.3409446026249</v>
       </c>
       <c r="T19" s="180" t="s">
         <v>474</v>
@@ -14961,7 +15011,7 @@
       <c r="AD19" s="141"/>
       <c r="AE19" s="142"/>
       <c r="AF19" s="141"/>
-      <c r="AG19" s="247"/>
+      <c r="AG19" s="237"/>
       <c r="AH19" s="141"/>
       <c r="AI19" s="142"/>
       <c r="AJ19" s="149"/>
@@ -15023,7 +15073,7 @@
       </c>
       <c r="Y20" s="158">
         <f>(S19-I9)/I3</f>
-        <v>-0.37817458362022821</v>
+        <v>0.86895587968954535</v>
       </c>
       <c r="Z20" s="141"/>
       <c r="AA20" s="141"/>
@@ -15032,7 +15082,7 @@
       <c r="AD20" s="141"/>
       <c r="AE20" s="142"/>
       <c r="AF20" s="141"/>
-      <c r="AG20" s="247"/>
+      <c r="AG20" s="237"/>
       <c r="AH20" s="141"/>
       <c r="AI20" s="142"/>
       <c r="AJ20" s="149"/>
@@ -15078,7 +15128,7 @@
       <c r="R21" s="141"/>
       <c r="S21" s="141">
         <f>S19-I9</f>
-        <v>-58.238885877515145</v>
+        <v>133.81920547218999</v>
       </c>
       <c r="T21" s="141" t="s">
         <v>476</v>
@@ -15093,7 +15143,7 @@
       </c>
       <c r="Y21" s="158">
         <f>(S19-I9)/I5*100</f>
-        <v>-4.1599204198225106</v>
+        <v>8.9212803648126648</v>
       </c>
       <c r="Z21" s="141"/>
       <c r="AA21" s="141"/>
@@ -15106,10 +15156,10 @@
       <c r="AH21" s="141"/>
       <c r="AI21" s="142"/>
       <c r="AJ21" s="149"/>
-      <c r="AN21" s="245" t="s">
+      <c r="AN21" s="228" t="s">
         <v>495</v>
       </c>
-      <c r="AO21" s="244"/>
+      <c r="AO21" s="229"/>
       <c r="AP21" s="141"/>
       <c r="AQ21" s="141"/>
       <c r="AR21" s="149"/>
@@ -15145,7 +15195,7 @@
       </c>
       <c r="Y22" s="153">
         <f>2*$Y$13*Y21/100</f>
-        <v>-0.30342047424685226</v>
+        <v>0.65070935162170329</v>
       </c>
       <c r="Z22" s="141"/>
       <c r="AA22" s="141"/>
@@ -15154,7 +15204,7 @@
       <c r="AD22" s="141"/>
       <c r="AE22" s="141"/>
       <c r="AF22" s="141"/>
-      <c r="AG22" s="247"/>
+      <c r="AG22" s="237"/>
       <c r="AH22" s="141"/>
       <c r="AI22" s="142"/>
       <c r="AJ22" s="149"/>
@@ -15199,7 +15249,7 @@
       </c>
       <c r="Y23" s="154">
         <f>-4*(($D$13*(($D$14-$I9)/$I$5)^2)+($S$8*(($S$9-$I9)/$I$5)^2)+($S$15*(($S$16-$I9)/$I$5)^2))</f>
-        <v>-1.8543771569994987</v>
+        <v>-2.0098254101249937</v>
       </c>
       <c r="Z23" s="141"/>
       <c r="AA23" s="141"/>
@@ -15208,23 +15258,23 @@
       <c r="AD23" s="141"/>
       <c r="AE23" s="141"/>
       <c r="AF23" s="141"/>
-      <c r="AG23" s="247"/>
+      <c r="AG23" s="237"/>
       <c r="AH23" s="141"/>
       <c r="AI23" s="142"/>
       <c r="AJ23" s="149"/>
       <c r="AN23" s="148">
         <f>AN16</f>
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="AO23" s="141">
         <f>AO16</f>
         <v>77</v>
       </c>
       <c r="AP23" s="141"/>
-      <c r="AQ23" s="244" t="s">
+      <c r="AQ23" s="229" t="s">
         <v>498</v>
       </c>
-      <c r="AR23" s="246"/>
+      <c r="AR23" s="236"/>
     </row>
     <row r="24" spans="1:44" ht="19.5" customHeight="1">
       <c r="A24" s="148"/>
@@ -15259,13 +15309,13 @@
       <c r="AD24" s="141"/>
       <c r="AE24" s="141"/>
       <c r="AF24" s="141"/>
-      <c r="AG24" s="247"/>
+      <c r="AG24" s="237"/>
       <c r="AH24" s="141"/>
       <c r="AI24" s="142"/>
       <c r="AJ24" s="149"/>
       <c r="AN24" s="148">
         <f>AN23+S4</f>
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="AO24" s="141">
         <f>S3/2</f>
@@ -15314,13 +15364,13 @@
       <c r="AD25" s="141"/>
       <c r="AE25" s="141"/>
       <c r="AF25" s="141"/>
-      <c r="AG25" s="247"/>
+      <c r="AG25" s="237"/>
       <c r="AH25" s="141"/>
       <c r="AI25" s="142"/>
       <c r="AJ25" s="149"/>
       <c r="AN25" s="148">
         <f>AN24</f>
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="AO25" s="141">
         <f>-AO24</f>
@@ -15365,7 +15415,7 @@
       </c>
       <c r="Y26" s="158">
         <f>(S19-I10)/I3</f>
-        <v>-0.37817458362022821</v>
+        <v>0.96677823237087368</v>
       </c>
       <c r="Z26" s="141"/>
       <c r="AA26" s="141"/>
@@ -15374,13 +15424,13 @@
       <c r="AD26" s="141"/>
       <c r="AE26" s="141"/>
       <c r="AF26" s="141"/>
-      <c r="AG26" s="247"/>
+      <c r="AG26" s="237"/>
       <c r="AH26" s="141"/>
       <c r="AI26" s="142"/>
       <c r="AJ26" s="149"/>
       <c r="AN26" s="148">
         <f>AN23</f>
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="AO26" s="141">
         <f>-AO23</f>
@@ -15427,19 +15477,19 @@
       </c>
       <c r="Y27" s="158">
         <f>(S19-I10)/I5*100</f>
-        <v>-4.1599204198225106</v>
+        <v>9.9255898523409698</v>
       </c>
       <c r="Z27" s="141"/>
       <c r="AA27" s="141"/>
       <c r="AB27" s="141"/>
       <c r="AF27" s="141"/>
-      <c r="AG27" s="247"/>
+      <c r="AG27" s="237"/>
       <c r="AH27" s="141"/>
       <c r="AI27" s="142"/>
       <c r="AJ27" s="149"/>
       <c r="AN27" s="148">
         <f>AN23</f>
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="AO27" s="141">
         <f>AO23</f>
@@ -15486,7 +15536,7 @@
       </c>
       <c r="Y28" s="153">
         <f>2*$Y$13*Y27/100</f>
-        <v>-0.30342047424685226</v>
+        <v>0.72396269068664953</v>
       </c>
       <c r="Z28" s="141"/>
       <c r="AA28" s="141"/>
@@ -15539,20 +15589,20 @@
       </c>
       <c r="Y29" s="154">
         <f>-4*(($D$13*(($D$14-$I10)/$I$5)^2)+($S$8*(($S$9-$I10)/$I$5)^2)+($S$15*(($S$16-$I10)/$I$5)^2))</f>
-        <v>-1.8543771569994987</v>
+        <v>-2.0374373336115976</v>
       </c>
       <c r="Z29" s="141"/>
       <c r="AA29" s="141"/>
       <c r="AB29" s="141"/>
       <c r="AF29" s="141"/>
-      <c r="AG29" s="247"/>
+      <c r="AG29" s="237"/>
       <c r="AH29" s="141"/>
       <c r="AI29" s="142"/>
       <c r="AJ29" s="149"/>
-      <c r="AN29" s="245" t="s">
+      <c r="AN29" s="228" t="s">
         <v>501</v>
       </c>
-      <c r="AO29" s="244"/>
+      <c r="AO29" s="229"/>
       <c r="AP29" s="141"/>
       <c r="AQ29" s="141">
         <f>AQ28-(N12-N15*TAN(RADIANS(90)-N14))</f>
@@ -15593,7 +15643,7 @@
       <c r="AA30" s="141"/>
       <c r="AB30" s="141"/>
       <c r="AF30" s="141"/>
-      <c r="AG30" s="247"/>
+      <c r="AG30" s="237"/>
       <c r="AH30" s="141"/>
       <c r="AI30" s="142"/>
       <c r="AJ30" s="149"/>
@@ -15643,13 +15693,13 @@
       <c r="AA31" s="141"/>
       <c r="AB31" s="141"/>
       <c r="AF31" s="141"/>
-      <c r="AG31" s="247"/>
+      <c r="AG31" s="237"/>
       <c r="AH31" s="141"/>
       <c r="AI31" s="142"/>
       <c r="AJ31" s="149"/>
       <c r="AN31" s="148">
         <f t="shared" ref="AN31:AN36" si="0">AQ15+$N$6</f>
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="AO31" s="141">
         <f t="shared" ref="AO31:AO36" si="1">AR15+$I$4</f>
@@ -15687,22 +15737,22 @@
       <c r="T32" s="141"/>
       <c r="U32" s="141"/>
       <c r="V32" s="141"/>
-      <c r="W32" s="244" t="s">
+      <c r="W32" s="229" t="s">
         <v>450</v>
       </c>
-      <c r="X32" s="244"/>
-      <c r="Y32" s="244"/>
-      <c r="Z32" s="244"/>
+      <c r="X32" s="229"/>
+      <c r="Y32" s="229"/>
+      <c r="Z32" s="229"/>
       <c r="AA32" s="141"/>
       <c r="AB32" s="141"/>
       <c r="AF32" s="141"/>
-      <c r="AG32" s="247"/>
+      <c r="AG32" s="237"/>
       <c r="AH32" s="141"/>
       <c r="AI32" s="142"/>
       <c r="AJ32" s="149"/>
       <c r="AN32" s="148">
         <f t="shared" si="0"/>
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="AO32" s="141">
         <f t="shared" si="1"/>
@@ -15754,13 +15804,13 @@
       <c r="AA33" s="141"/>
       <c r="AB33" s="141"/>
       <c r="AF33" s="141"/>
-      <c r="AG33" s="247"/>
+      <c r="AG33" s="237"/>
       <c r="AH33" s="141"/>
       <c r="AI33" s="142"/>
       <c r="AJ33" s="149"/>
       <c r="AN33" s="148">
         <f t="shared" si="0"/>
-        <v>1385</v>
+        <v>1485</v>
       </c>
       <c r="AO33" s="141">
         <f t="shared" si="1"/>
@@ -15812,13 +15862,13 @@
       <c r="AA34" s="141"/>
       <c r="AB34" s="141"/>
       <c r="AF34" s="141"/>
-      <c r="AG34" s="248"/>
+      <c r="AG34" s="238"/>
       <c r="AH34" s="146"/>
       <c r="AI34" s="147"/>
       <c r="AJ34" s="149"/>
       <c r="AN34" s="148">
         <f t="shared" si="0"/>
-        <v>1415</v>
+        <v>1515</v>
       </c>
       <c r="AO34" s="141">
         <f t="shared" si="1"/>
@@ -15879,7 +15929,7 @@
       <c r="AJ35" s="149"/>
       <c r="AN35" s="148">
         <f t="shared" si="0"/>
-        <v>1295</v>
+        <v>1395</v>
       </c>
       <c r="AO35" s="141">
         <f t="shared" si="1"/>
@@ -15938,7 +15988,7 @@
       <c r="AJ36" s="149"/>
       <c r="AN36" s="148">
         <f t="shared" si="0"/>
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="AO36" s="141">
         <f t="shared" si="1"/>
@@ -16048,10 +16098,10 @@
       <c r="AH38" s="141"/>
       <c r="AI38" s="141"/>
       <c r="AJ38" s="149"/>
-      <c r="AN38" s="245" t="s">
+      <c r="AN38" s="228" t="s">
         <v>504</v>
       </c>
-      <c r="AO38" s="244"/>
+      <c r="AO38" s="229"/>
       <c r="AP38" s="141"/>
       <c r="AQ38" s="141"/>
       <c r="AR38" s="149"/>
@@ -16160,7 +16210,7 @@
       <c r="AJ40" s="149"/>
       <c r="AN40" s="148">
         <f t="shared" ref="AN40:AN45" si="2">AN31</f>
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="AO40" s="141">
         <f>-AO31</f>
@@ -16220,7 +16270,7 @@
       <c r="AJ41" s="149"/>
       <c r="AN41" s="148">
         <f t="shared" si="2"/>
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="AO41" s="141">
         <f>-AO32</f>
@@ -16281,7 +16331,7 @@
       <c r="AJ42" s="149"/>
       <c r="AN42" s="148">
         <f t="shared" si="2"/>
-        <v>1385</v>
+        <v>1485</v>
       </c>
       <c r="AO42" s="141">
         <f>-AO33</f>
@@ -16342,7 +16392,7 @@
       <c r="AJ43" s="149"/>
       <c r="AN43" s="148">
         <f t="shared" si="2"/>
-        <v>1415</v>
+        <v>1515</v>
       </c>
       <c r="AO43" s="141">
         <f>-AO34</f>
@@ -16397,7 +16447,7 @@
       <c r="AJ44" s="149"/>
       <c r="AN44" s="148">
         <f t="shared" si="2"/>
-        <v>1295</v>
+        <v>1395</v>
       </c>
       <c r="AO44" s="141">
         <f t="shared" ref="AO44:AO45" si="3">-AO35</f>
@@ -16417,7 +16467,7 @@
       </c>
       <c r="D45" s="141">
         <f>D74</f>
-        <v>0.20223131320532639</v>
+        <v>0.20255549722437616</v>
       </c>
       <c r="E45" s="141"/>
       <c r="F45" s="141"/>
@@ -16449,7 +16499,7 @@
       <c r="AJ45" s="149"/>
       <c r="AN45" s="148">
         <f t="shared" si="2"/>
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="AO45" s="141">
         <f t="shared" si="3"/>
@@ -16624,12 +16674,12 @@
       <c r="AJ49" s="152"/>
     </row>
     <row r="53" spans="1:36" ht="19.5" customHeight="1">
-      <c r="B53" s="231" t="s">
+      <c r="B53" s="239" t="s">
         <v>439</v>
       </c>
-      <c r="C53" s="232"/>
-      <c r="D53" s="232"/>
-      <c r="E53" s="233"/>
+      <c r="C53" s="253"/>
+      <c r="D53" s="253"/>
+      <c r="E53" s="254"/>
     </row>
     <row r="54" spans="1:36" ht="19.5" customHeight="1">
       <c r="B54" s="140" t="s">
@@ -16722,7 +16772,7 @@
       </c>
       <c r="D61" s="141">
         <f>I3*PI()*I5+諸元!F50</f>
-        <v>677327.37611395936</v>
+        <v>725707.90297924227</v>
       </c>
       <c r="E61" s="142" t="s">
         <v>379</v>
@@ -16760,7 +16810,7 @@
       </c>
       <c r="D65" s="173">
         <f>1.02*D64*D61/(I3^2*PI()/4)*(1+(1.5/(I6^(3/2))))</f>
-        <v>4.4377731771901768E-2</v>
+        <v>4.7305028006674923E-2</v>
       </c>
       <c r="E65" s="142"/>
     </row>
@@ -16773,7 +16823,7 @@
       </c>
       <c r="D66" s="173">
         <f>0.029/SQRT(D65)*(S3/I3)^3</f>
-        <v>8.281010625183477E-2</v>
+        <v>8.0206994036111381E-2</v>
       </c>
       <c r="E66" s="142"/>
     </row>
@@ -16873,12 +16923,18 @@
       </c>
       <c r="D74" s="176">
         <f>D65+D66+D72+D73</f>
-        <v>0.20223131320532639</v>
+        <v>0.20255549722437616</v>
       </c>
       <c r="E74" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="W32:Z32"/>
     <mergeCell ref="AN38:AO38"/>
     <mergeCell ref="AN5:AO5"/>
     <mergeCell ref="AC14:AE14"/>
@@ -16895,12 +16951,6 @@
     <mergeCell ref="AN29:AO29"/>
     <mergeCell ref="AG22:AG27"/>
     <mergeCell ref="AB2:AI11"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="W32:Z32"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17023,8 +17073,8 @@
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1">
       <c r="A7" s="81"/>
-      <c r="B7" s="258"/>
-      <c r="C7" s="258"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="259"/>
       <c r="D7" s="81"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
@@ -17036,14 +17086,14 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="81"/>
-      <c r="B8" s="259" t="s">
+      <c r="B8" s="260" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="260"/>
-      <c r="D8" s="260" t="s">
+      <c r="C8" s="261"/>
+      <c r="D8" s="261" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="260"/>
+      <c r="E8" s="261"/>
       <c r="F8" s="85" t="s">
         <v>206</v>
       </c>
@@ -17339,16 +17389,16 @@
       <c r="G23" s="81"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="261" t="s">
+      <c r="B24" s="262" t="s">
         <v>316</v>
       </c>
-      <c r="C24" s="262"/>
-      <c r="D24" s="263"/>
-      <c r="E24" s="264" t="s">
+      <c r="C24" s="263"/>
+      <c r="D24" s="264"/>
+      <c r="E24" s="265" t="s">
         <v>278</v>
       </c>
-      <c r="F24" s="265"/>
-      <c r="G24" s="266"/>
+      <c r="F24" s="266"/>
+      <c r="G24" s="267"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="124" t="s">
@@ -17356,7 +17406,7 @@
       </c>
       <c r="C25" s="125">
         <f>諸元!F27-諸元!F28</f>
-        <v>0</v>
+        <v>6.3000000000000014E-2</v>
       </c>
       <c r="D25" s="120" t="s">
         <v>222</v>
@@ -17366,7 +17416,7 @@
       </c>
       <c r="F25" s="125">
         <f>諸元!F26</f>
-        <v>0</v>
+        <v>0.379</v>
       </c>
       <c r="G25" s="120" t="s">
         <v>222</v>
@@ -17378,7 +17428,7 @@
       </c>
       <c r="C26" s="123">
         <f>諸元!F9</f>
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="D26" s="120" t="s">
         <v>225</v>
@@ -17388,7 +17438,7 @@
       </c>
       <c r="F26" s="123">
         <f>諸元!F8</f>
-        <v>0</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="G26" s="120" t="s">
         <v>225</v>
@@ -17400,7 +17450,7 @@
       </c>
       <c r="C27" s="83">
         <f>C25*C26</f>
-        <v>0</v>
+        <v>7.7490000000000015E-3</v>
       </c>
       <c r="D27" s="120" t="s">
         <v>228</v>
@@ -17410,7 +17460,7 @@
       </c>
       <c r="F27" s="83">
         <f>F25*F26</f>
-        <v>0</v>
+        <v>0.15387400000000001</v>
       </c>
       <c r="G27" s="120" t="s">
         <v>230</v>
@@ -17452,7 +17502,7 @@
       </c>
       <c r="C30" s="83">
         <f>C17-C25</f>
-        <v>0</v>
+        <v>-6.3000000000000014E-2</v>
       </c>
       <c r="D30" s="120" t="s">
         <v>234</v>
@@ -17462,7 +17512,7 @@
       </c>
       <c r="F30" s="83">
         <f>C17+F25</f>
-        <v>0</v>
+        <v>0.379</v>
       </c>
       <c r="G30" s="120" t="s">
         <v>234</v>
